--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahmoud\Dropbox (Personal)\repos\MarketAnalyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A870FBF-4A99-40FD-9013-8F6FDCA40E28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF29D8C-B99C-41C3-A042-0868101E79C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" xr2:uid="{86DD7C81-BD4C-4505-94D9-C01B03DD23EF}"/>
+    <workbookView xWindow="855" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{86DD7C81-BD4C-4505-94D9-C01B03DD23EF}"/>
   </bookViews>
   <sheets>
     <sheet name="pool" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>AGN</t>
   </si>
@@ -273,15 +273,6 @@
   </si>
   <si>
     <t>TEVA</t>
-  </si>
-  <si>
-    <t>SPY</t>
-  </si>
-  <si>
-    <t>IVV</t>
-  </si>
-  <si>
-    <t>GLD</t>
   </si>
   <si>
     <t>interest</t>
@@ -296,7 +287,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -338,7 +329,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -655,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039F51D7-2656-4C24-BF94-F087CF341CD2}">
-  <dimension ref="A1:A68"/>
+  <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,7 +691,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
@@ -971,21 +962,6 @@
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1028,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
